--- a/Python/output/case-study/inventory-SA-FA-KPI-1.xlsx
+++ b/Python/output/case-study/inventory-SA-FA-KPI-1.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301AA89A-3609-A242-96CF-E0148C08C007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8380" yWindow="3600" windowWidth="28040" windowHeight="17440" xr2:uid="{DF189658-D10F-184F-A8FE-8F24FEADBE36}"/>
+    <workbookView xWindow="16800" yWindow="3620" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="penalty-SA-FA-KPI-1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -891,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3DDA73-4353-FC44-96E7-15694C416F8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -919,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>63466.373294418001</v>
+        <v>62723.796964785797</v>
       </c>
       <c r="C2">
-        <v>62996.907374469003</v>
+        <v>59254.959606917197</v>
       </c>
       <c r="D2">
-        <v>249.52817532839899</v>
+        <v>324.20458654962601</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -933,13 +940,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>63236.464714693699</v>
+        <v>62407.145109810903</v>
       </c>
       <c r="C3">
-        <v>61854.976978130398</v>
+        <v>58110.442315214103</v>
       </c>
       <c r="D3">
-        <v>250.353501562546</v>
+        <v>329.11499173677601</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -947,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>62989.247008483202</v>
+        <v>62237.1473834629</v>
       </c>
       <c r="C4">
-        <v>60706.454948494596</v>
+        <v>57167.626047763297</v>
       </c>
       <c r="D4">
-        <v>256.76652275826598</v>
+        <v>351.74452509743298</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -961,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>62735.064387596402</v>
+        <v>62051.983547960001</v>
       </c>
       <c r="C5">
-        <v>59338.441163670403</v>
+        <v>56267.111038143201</v>
       </c>
       <c r="D5">
-        <v>301.38858521520802</v>
+        <v>389.87708975023997</v>
       </c>
     </row>
   </sheetData>

--- a/Python/output/case-study/inventory-SA-FA-KPI-1.xlsx
+++ b/Python/output/case-study/inventory-SA-FA-KPI-1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="3620" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2060" yWindow="4140" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="penalty-SA-FA-KPI-1" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62723.796964785797</v>
+        <v>89289.091942414307</v>
       </c>
       <c r="C2">
-        <v>59254.959606917197</v>
+        <v>61900.571533217502</v>
       </c>
       <c r="D2">
-        <v>324.20458654962601</v>
+        <v>205.22809740707601</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -940,13 +940,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>62407.145109810903</v>
+        <v>86910.332389806397</v>
       </c>
       <c r="C3">
-        <v>58110.442315214103</v>
+        <v>59554.102570634597</v>
       </c>
       <c r="D3">
-        <v>329.11499173677601</v>
+        <v>237.51868743218799</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -954,13 +954,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>62237.1473834629</v>
+        <v>85104.733203326701</v>
       </c>
       <c r="C4">
-        <v>57167.626047763297</v>
+        <v>57788.213950614001</v>
       </c>
       <c r="D4">
-        <v>351.74452509743298</v>
+        <v>277.22925389091398</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -968,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>62051.983547960001</v>
+        <v>83714.160106570795</v>
       </c>
       <c r="C5">
-        <v>56267.111038143201</v>
+        <v>56459.615119203401</v>
       </c>
       <c r="D5">
-        <v>389.87708975023997</v>
+        <v>339.20351923521901</v>
       </c>
     </row>
   </sheetData>
